--- a/Adhesive/raw data of figure2a.xlsx
+++ b/Adhesive/raw data of figure2a.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679BDD22-57BB-674A-A1AA-AFF7C36197F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{921F908C-5FC3-FA49-96D2-D2ECAC4E6435}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="500" windowWidth="22260" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="740" yWindow="500" windowWidth="14840" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76939,7 +76939,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
